--- a/data/trans_camb/P16A10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3355340552561437</v>
+        <v>-0.3353671885868018</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6735785620754127</v>
+        <v>-0.9153371505881844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.7407196263465927</v>
+        <v>-0.6739296214707704</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4046285345480158</v>
+        <v>-0.4035644374112458</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4036066471617688</v>
+        <v>-0.4026132930244082</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.397036627410242</v>
+        <v>-0.398461357547935</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2796824824541062</v>
+        <v>-0.3378911450321199</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.3668817909348542</v>
+        <v>-0.3840321528612979</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2700135754862991</v>
+        <v>-0.269526198042478</v>
       </c>
     </row>
     <row r="6">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6913359552071018</v>
+        <v>0.8429091196469815</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7023431723318161</v>
+        <v>0.7112650606122225</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9586934194258618</v>
+        <v>1.012253772513858</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.236439946057368</v>
+        <v>3.805245920246446</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4880510275703053</v>
+        <v>0.5442684770948656</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3665231557763564</v>
+        <v>0.3178059434130688</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.891057203144231</v>
+        <v>1.884069258231015</v>
       </c>
     </row>
     <row r="7">
@@ -853,31 +853,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.09970311309672492</v>
+        <v>-0.1256143429562359</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1269313653869236</v>
+        <v>-0.1269790795432166</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6378669247777429</v>
+        <v>-0.6366202663640163</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7273476824527029</v>
+        <v>-0.7331020684161753</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.08476267370517304</v>
+        <v>-0.07778689749177781</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.4443852760500798</v>
+        <v>-0.438523817039874</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1794538121641247</v>
+        <v>-0.1934979797151058</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05245245663249684</v>
+        <v>0.05419225597012488</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.3437815410149508</v>
+        <v>-0.3380587841269186</v>
       </c>
     </row>
     <row r="12">
@@ -888,31 +888,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.500433010952588</v>
+        <v>1.439515305926826</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.262467169492417</v>
+        <v>1.306587707281378</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3070668855874822</v>
+        <v>0.3075861924894384</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.768678210973531</v>
+        <v>1.843596801698181</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.878206186418733</v>
+        <v>0.9489410513479293</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7692399019446804</v>
+        <v>0.7465271753339296</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.134577926048033</v>
+        <v>1.160793201937475</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4212012066429823</v>
+        <v>0.3832871347557563</v>
       </c>
     </row>
     <row r="13">
@@ -961,13 +961,13 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
-      <c r="G14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="n">
+        <v>-0.8162646370788673</v>
+      </c>
       <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="n">
-        <v>-0.7359342891689667</v>
-      </c>
+      <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.384020550071136</v>
+        <v>-0.2565825507711523</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
     </row>
@@ -986,7 +986,7 @@
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>16.07363088066761</v>
+        <v>15.51606458650907</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
     </row>
@@ -1017,7 +1017,7 @@
         <v>-0.2582639184406457</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.4135487137571969</v>
+        <v>-0.4135487137571967</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.1365205876144148</v>
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8248087258567625</v>
+        <v>-0.8614963244277275</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.299517475458194</v>
+        <v>-1.168849404140531</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.067993952758372</v>
+        <v>-0.9364418591093316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9938062986566867</v>
+        <v>-0.9311723590329986</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.431206277103858</v>
+        <v>-1.427099305624706</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.479717103825365</v>
+        <v>-1.583160922184434</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6148181529817399</v>
+        <v>-0.6824940953129205</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.021305713733616</v>
+        <v>-1.079037107666595</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.007628090209881</v>
+        <v>-1.041931377872056</v>
       </c>
     </row>
     <row r="18">
@@ -1072,31 +1072,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9000905620074681</v>
+        <v>0.8591335826379066</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2935398408377249</v>
+        <v>0.2987313124436533</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8314053779305344</v>
+        <v>0.9077558338233298</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.486493388135347</v>
+        <v>1.651234479051124</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8093840601603723</v>
+        <v>0.750467638795085</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5059703573475862</v>
+        <v>0.4812176636661789</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9439239775857091</v>
+        <v>0.8992252088553806</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2855028628883484</v>
+        <v>0.2647617138414325</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3821614865059341</v>
+        <v>0.4443226722343326</v>
       </c>
     </row>
     <row r="19">
@@ -1122,7 +1122,7 @@
         <v>-0.2314747969758096</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.370652258103</v>
+        <v>-0.3706522581029998</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1471882280634229</v>
@@ -1142,29 +1142,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7931018773886936</v>
-      </c>
-      <c r="D20" s="6" t="inlineStr"/>
+        <v>-0.7919248131265278</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6062993814209682</v>
+        <v>-0.5737101634608749</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.787835819582856</v>
+        <v>-0.8028184536021079</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8230416343578572</v>
+        <v>-0.8402744089292057</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4780415511553495</v>
+        <v>-0.5181777774156904</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7668972524145028</v>
+        <v>-0.7904745596696723</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.745351362549564</v>
+        <v>-0.749736892049146</v>
       </c>
     </row>
     <row r="21">
@@ -1175,29 +1177,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.972435816071446</v>
-      </c>
-      <c r="D21" s="6" t="inlineStr"/>
+        <v>3.096287296097109</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>2.229601089301962</v>
+      </c>
       <c r="E21" s="6" t="n">
-        <v>3.461271963708875</v>
+        <v>3.431518738208383</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.559278678057225</v>
+        <v>3.264225134358485</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.773335786706643</v>
+        <v>1.488938404425999</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.347175587375764</v>
+        <v>1.170149547051991</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.606266989429733</v>
+        <v>1.61223194006238</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.58560468465219</v>
+        <v>0.55984106152584</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8527109318847411</v>
+        <v>0.918089869636298</v>
       </c>
     </row>
     <row r="22">
@@ -1218,7 +1222,7 @@
         <v>0.5566004085787227</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.472980068604321</v>
+        <v>1.47298006860432</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-2.115345895796814</v>
@@ -1236,7 +1240,7 @@
         <v>-0.264603495765706</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.172676883564038</v>
+        <v>-0.1726768835640373</v>
       </c>
     </row>
     <row r="23">
@@ -1247,31 +1251,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.133814098524837</v>
+        <v>-2.432810921113481</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.295551864804675</v>
+        <v>-1.472219343204066</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5365315382539917</v>
+        <v>-0.5293044788897818</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.14251923195713</v>
+        <v>-4.355331304168434</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.330563345005075</v>
+        <v>-3.148886274866708</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.862182435865831</v>
+        <v>-3.588300199095721</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.430896883608904</v>
+        <v>-2.486963776864708</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.721122356541234</v>
+        <v>-1.748685423717504</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.462717591948858</v>
+        <v>-1.519497718101585</v>
       </c>
     </row>
     <row r="24">
@@ -1282,31 +1286,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.728755016573172</v>
+        <v>1.576194216842565</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.617146149478485</v>
+        <v>2.428080862917224</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.697033696849998</v>
+        <v>3.733130028922477</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.4813292546794017</v>
+        <v>-0.5086856850106082</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.801658055227926</v>
+        <v>0.7635405489582709</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.2465029544890003</v>
+        <v>-0.2732129162114984</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2247405975129234</v>
+        <v>0.2046772544109514</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.164207720722902</v>
+        <v>1.106802369895963</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.235067754354171</v>
+        <v>1.189330885969939</v>
       </c>
     </row>
     <row r="25">
@@ -1323,7 +1327,7 @@
         <v>0.2254673476148388</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5966738508255472</v>
+        <v>0.5966738508255469</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.6323524423755613</v>
@@ -1341,7 +1345,7 @@
         <v>-0.09107168879053601</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.059432228420702</v>
+        <v>-0.05943222842070175</v>
       </c>
     </row>
     <row r="26">
@@ -1352,31 +1356,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6361529511408239</v>
+        <v>-0.6422218013999856</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4191524496529835</v>
+        <v>-0.4457212653085654</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.190474028002752</v>
+        <v>-0.1938564182586888</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8639585696856694</v>
+        <v>-0.8758907677016875</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6932171532135374</v>
+        <v>-0.696370033668319</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7668901897270891</v>
+        <v>-0.7672593596342729</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6615232965070177</v>
+        <v>-0.6579200445322784</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4506064531394794</v>
+        <v>-0.4549480602975682</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3920467206048789</v>
+        <v>-0.4257136411509407</v>
       </c>
     </row>
     <row r="27">
@@ -1387,31 +1391,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.124493251835156</v>
+        <v>1.120828509560099</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.783812756401539</v>
+        <v>1.649240742822702</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.37629858630963</v>
+        <v>2.532885425073493</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1149957885777092</v>
+        <v>-0.1363543012469259</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4213777893393521</v>
+        <v>0.3540259176242806</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.0811368258879803</v>
+        <v>-0.101982890571353</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1399627084195134</v>
+        <v>0.1408252373448363</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5529757131901576</v>
+        <v>0.5198479489290541</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6282244745972255</v>
+        <v>0.540439557054725</v>
       </c>
     </row>
     <row r="28">
@@ -1432,7 +1436,7 @@
         <v>-0.4429754083121684</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.490574256118712</v>
+        <v>-3.490574256118713</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.04546307077406692</v>
@@ -1441,7 +1445,7 @@
         <v>-3.210391410133278</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.552840446536073</v>
+        <v>-1.552840446536072</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.319065520307333</v>
@@ -1461,31 +1465,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.695452487429447</v>
+        <v>-6.582666750506072</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.01536335077776</v>
+        <v>-5.07024437772455</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.273274109460804</v>
+        <v>-7.408541349189863</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.512384473586558</v>
+        <v>-3.454046031484412</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.447100669626431</v>
+        <v>-6.520718059155163</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.504421419130847</v>
+        <v>-4.446217095208791</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.06646546626705</v>
+        <v>-3.915342932144739</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.523665083379821</v>
+        <v>-4.513881807032171</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.926957855325822</v>
+        <v>-4.883473404375727</v>
       </c>
     </row>
     <row r="30">
@@ -1496,31 +1500,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.42706797091371</v>
+        <v>1.5881047722512</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.884075355839624</v>
+        <v>4.218357026894457</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5698483476607769</v>
+        <v>-0.004418506253768098</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.089839822965331</v>
+        <v>3.105520671457455</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.7172188071347759</v>
+        <v>-0.9864901439055644</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.094934615938243</v>
+        <v>0.9616728099183971</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.49650075805799</v>
+        <v>1.358530933570991</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6205191227902576</v>
+        <v>0.6948051241188613</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.2897334006246337</v>
+        <v>-0.06862945722736728</v>
       </c>
     </row>
     <row r="31">
@@ -1537,7 +1541,7 @@
         <v>-0.03998038306912094</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3150389237690882</v>
+        <v>-0.3150389237690883</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.007449899627597239</v>
@@ -1546,7 +1550,7 @@
         <v>-0.5260773934442654</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2544593945679079</v>
+        <v>-0.2544593945679078</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1545154234311824</v>
@@ -1566,31 +1570,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5041909569646704</v>
+        <v>-0.5048084146545808</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3728658513781203</v>
+        <v>-0.367802802081969</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5291982131242223</v>
+        <v>-0.5450471589942821</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4376119965996308</v>
+        <v>-0.4497502376904458</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7750451294679057</v>
+        <v>-0.7676761891222095</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5458017643844175</v>
+        <v>-0.5342744754669593</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3995299471957527</v>
+        <v>-0.3892731735021993</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.453836138313069</v>
+        <v>-0.4466047828208174</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4827254616858828</v>
+        <v>-0.4822444806855739</v>
       </c>
     </row>
     <row r="33">
@@ -1601,31 +1605,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1736189316621856</v>
+        <v>0.1987767787795625</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4293233505217357</v>
+        <v>0.4888885532107924</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.07064353200690229</v>
+        <v>0.004141416069181886</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7318963466791708</v>
+        <v>0.698262102276335</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.05131146833605175</v>
+        <v>-0.1640924267813305</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2821765109832986</v>
+        <v>0.2559425450642919</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2288976003901048</v>
+        <v>0.1777302803502632</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.09107503862557428</v>
+        <v>0.09905607450481574</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.04561595172932715</v>
+        <v>-0.01667159424712361</v>
       </c>
     </row>
     <row r="34">
@@ -1646,7 +1650,7 @@
         <v>2.435314327791022</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-5.085519941424319</v>
+        <v>-5.085519941424317</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-4.569808463829532</v>
@@ -1664,7 +1668,7 @@
         <v>0.3048220527463036</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-5.899549043179732</v>
+        <v>-5.89954904317973</v>
       </c>
     </row>
     <row r="35">
@@ -1675,31 +1679,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.841790825984389</v>
+        <v>-8.086829129764093</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.193640225163902</v>
+        <v>-3.899424523513741</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-10.49676343221515</v>
+        <v>-10.1523997783988</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-9.348366325333727</v>
+        <v>-9.181589736971073</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.789602050777464</v>
+        <v>-6.616237120732975</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.80269635924138</v>
+        <v>-11.0051039573973</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-7.502449074318522</v>
+        <v>-7.459976583564579</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.450210216861267</v>
+        <v>-3.877528711194428</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-9.210742396306694</v>
+        <v>-9.204135980683517</v>
       </c>
     </row>
     <row r="36">
@@ -1710,31 +1714,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.439869884340909</v>
+        <v>3.753873146989873</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.591956334481489</v>
+        <v>8.27715556286196</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.2241240664604827</v>
+        <v>-0.07296943292477516</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.4427367032189956</v>
+        <v>0.6729836222107809</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.214822850161042</v>
+        <v>3.378194158761104</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-2.533505935318967</v>
+        <v>-2.391431411996891</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.1039262991984642</v>
+        <v>0.02732172956966966</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.543345334375667</v>
+        <v>4.04727280873453</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-2.933713088377442</v>
+        <v>-2.743825361983243</v>
       </c>
     </row>
     <row r="37">
@@ -1751,7 +1755,7 @@
         <v>0.1386473522522353</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.2895288984498307</v>
+        <v>-0.2895288984498305</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.3038703935219724</v>
@@ -1769,7 +1773,7 @@
         <v>0.0188142341631319</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.3641321097185946</v>
+        <v>-0.3641321097185945</v>
       </c>
     </row>
     <row r="38">
@@ -1780,31 +1784,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3947644073231242</v>
+        <v>-0.4055334798742902</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.16118820222251</v>
+        <v>-0.1857908117875328</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4946574335343718</v>
+        <v>-0.48428260787952</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5298238430104028</v>
+        <v>-0.5321829817525681</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3862909825558642</v>
+        <v>-0.3779465495626239</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.6068603624551169</v>
+        <v>-0.6148489557470004</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4156568727659551</v>
+        <v>-0.4082746257946941</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1955539845848634</v>
+        <v>-0.2131670401905291</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4908948326477419</v>
+        <v>-0.4937589162093186</v>
       </c>
     </row>
     <row r="39">
@@ -1815,31 +1819,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2411385534945756</v>
+        <v>0.255185211193939</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5804881255431606</v>
+        <v>0.5748915353794226</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.01235794159160904</v>
+        <v>-0.003143905838522436</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.05613661752421625</v>
+        <v>0.04914185259800836</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2665131204333134</v>
+        <v>0.2877199981867256</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1951067820890587</v>
+        <v>-0.2040779758446457</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.005756373041740487</v>
+        <v>0.009346887059546697</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.319847812195491</v>
+        <v>0.2816047946679454</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.196565348748597</v>
+        <v>-0.1851352139265221</v>
       </c>
     </row>
     <row r="40">
@@ -1869,7 +1873,7 @@
         <v>2.240951426417356</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.095290577650324</v>
+        <v>2.09529057765033</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.186481737922134</v>
@@ -1878,7 +1882,7 @@
         <v>-1.139873868862326</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-1.024591002681491</v>
+        <v>-1.024591002681494</v>
       </c>
     </row>
     <row r="41">
@@ -1889,31 +1893,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.690572447992722</v>
+        <v>-8.910678480027396</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-14.48349689635475</v>
+        <v>-14.26110277047721</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-13.25102483897213</v>
+        <v>-13.35450644724149</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-6.917876997871736</v>
+        <v>-6.596749002388639</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.132053779427053</v>
+        <v>-4.933000129104769</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.783928173964764</v>
+        <v>-3.587497943020959</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-5.493207938998214</v>
+        <v>-5.113165813345639</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-6.70764222226779</v>
+        <v>-6.681024201712718</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-5.390690274037385</v>
+        <v>-5.408145421735147</v>
       </c>
     </row>
     <row r="42">
@@ -1924,31 +1928,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>7.91326578000105</v>
+        <v>8.524864997370731</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.6133866392583178</v>
+        <v>0.9132896786919845</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.117886049713655</v>
+        <v>2.397027864400001</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.840601324941524</v>
+        <v>6.902813371482494</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.443900836441408</v>
+        <v>9.129280428086206</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.067542637423577</v>
+        <v>7.72156862177678</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.967042960773188</v>
+        <v>4.907743415783651</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.034821559014852</v>
+        <v>4.08703135137502</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.323954004731922</v>
+        <v>3.250053459114208</v>
       </c>
     </row>
     <row r="43">
@@ -1974,7 +1978,7 @@
         <v>0.0997869430153666</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0933008359788017</v>
+        <v>0.09330083597880195</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.007302448975417577</v>
@@ -1983,7 +1987,7 @@
         <v>-0.0446363856242836</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.04012201731451936</v>
+        <v>-0.04012201731451947</v>
       </c>
     </row>
     <row r="44">
@@ -1994,31 +1998,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2854324074676814</v>
+        <v>-0.2607700303377614</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4093562856415334</v>
+        <v>-0.4085739326580496</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3728630816305389</v>
+        <v>-0.3834343696439831</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2664479618812886</v>
+        <v>-0.2496971159737384</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1634979575538017</v>
+        <v>-0.1821162751000869</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1732655839667696</v>
+        <v>-0.1366741297873284</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1964108470374701</v>
+        <v>-0.1866384810977376</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2392667351335795</v>
+        <v>-0.2365156903687371</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1887167793476205</v>
+        <v>-0.1919058002409428</v>
       </c>
     </row>
     <row r="45">
@@ -2029,31 +2033,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3095577773652313</v>
+        <v>0.3419174066493001</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.02679388338717623</v>
+        <v>0.03261719664672146</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.04547072685507585</v>
+        <v>0.09380659742462537</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3034269148951814</v>
+        <v>0.3641524301201252</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4922182993826194</v>
+        <v>0.4846611240897196</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3811786381057571</v>
+        <v>0.4211084202201408</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.215261207315253</v>
+        <v>0.2127545919752694</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1867737057791067</v>
+        <v>0.1855331592222796</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1466678301437322</v>
+        <v>0.1453146568479858</v>
       </c>
     </row>
     <row r="46">
@@ -2083,7 +2087,7 @@
         <v>0.09266224618510385</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.03277476942862151</v>
+        <v>0.03277476942862012</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.3176218735451708</v>
@@ -2103,31 +2107,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.392563775391823</v>
+        <v>-1.207643121913433</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.6154175290791137</v>
+        <v>-0.5770347303584893</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.7179683448207328</v>
+        <v>-0.7392933885922522</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.588700555013578</v>
+        <v>-1.617874695507479</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.9895293564412244</v>
+        <v>-0.9301521135553078</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.9663324453885668</v>
+        <v>-0.9312751447744954</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.110170976062123</v>
+        <v>-1.055935991039349</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.5559076845750353</v>
+        <v>-0.4892704371257997</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.5285260931392666</v>
+        <v>-0.4858870704343468</v>
       </c>
     </row>
     <row r="48">
@@ -2138,31 +2142,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.8271720194348754</v>
+        <v>0.9888608337098885</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.670386742838225</v>
+        <v>1.654227883528221</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.460739257578498</v>
+        <v>1.360730788118687</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.6119220730968632</v>
+        <v>0.5513262911340616</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.222905371853063</v>
+        <v>1.32840050725984</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.001206874386207</v>
+        <v>0.9599985815009004</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.3836969273271676</v>
+        <v>0.4833995921712793</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.081731440097667</v>
+        <v>1.103973834826328</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.8458107499050339</v>
+        <v>0.9117197110946624</v>
       </c>
     </row>
     <row r="49">
@@ -2188,7 +2192,7 @@
         <v>0.01749844894573158</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.006189226499098758</v>
+        <v>0.006189226499098495</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.05933137254435888</v>
@@ -2208,31 +2212,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2304381546649446</v>
+        <v>-0.2044536341421034</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1021152608584381</v>
+        <v>-0.09926618649487573</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1161657248406775</v>
+        <v>-0.1230889506675707</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2669616063002122</v>
+        <v>-0.2683549890597887</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1699031431779092</v>
+        <v>-0.1602040450480403</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.161718864539774</v>
+        <v>-0.1570577195146432</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1922395735094805</v>
+        <v>-0.1832674724075503</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.09389581480847173</v>
+        <v>-0.08607034382486393</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.09141917129045735</v>
+        <v>-0.08385865862744644</v>
       </c>
     </row>
     <row r="51">
@@ -2243,31 +2247,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.164530058167258</v>
+        <v>0.2029900629751613</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3349786162639286</v>
+        <v>0.3405345086463984</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3124988064840179</v>
+        <v>0.2754564814115215</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1384938182679858</v>
+        <v>0.1182383752481789</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2613935755423916</v>
+        <v>0.2831423904085407</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2205129001309788</v>
+        <v>0.2010716709732965</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.07698189444527441</v>
+        <v>0.09999191335480116</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2181466610107042</v>
+        <v>0.2154988440888026</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1686655503470385</v>
+        <v>0.1855278002455515</v>
       </c>
     </row>
     <row r="52">
